--- a/output/rkedo.xlsx
+++ b/output/rkedo.xlsx
@@ -393,399 +393,399 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="B3">
-        <v>0.19503200460356396</v>
+        <v>1.0064</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.4</v>
+        <v>0.16</v>
       </c>
       <c r="B4">
-        <v>0.217773862304284</v>
+        <v>1.0261827095959075</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.6000000000000001</v>
+        <v>0.24</v>
       </c>
       <c r="B5">
-        <v>0.20516538540516663</v>
+        <v>1.0609565888235266</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.8</v>
+        <v>0.32</v>
       </c>
       <c r="B6">
-        <v>0.17777376658971097</v>
+        <v>1.1137805699966339</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="B7">
-        <v>0.14653348068434408</v>
+        <v>1.1898902708649302</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>1.2</v>
+        <v>0.48000000000000004</v>
       </c>
       <c r="B8">
-        <v>0.116834679188492</v>
+        <v>1.298161225088994</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1.4</v>
+        <v>0.56</v>
       </c>
       <c r="B9">
-        <v>0.09097166530806111</v>
+        <v>1.4541762924104968</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>1.5999999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="B10">
-        <v>0.06958555656483126</v>
+        <v>1.6872323251471961</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1.7999999999999998</v>
+        <v>0.72</v>
       </c>
       <c r="B11">
-        <v>0.05249628294751649</v>
+        <v>2.058513764980055</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>1.9999999999999998</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="B12">
-        <v>0.03916845964002218</v>
+        <v>2.717666784204847</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>2.1999999999999997</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="B13">
-        <v>0.02896122487884598</v>
+        <v>4.134968864775589</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>2.4</v>
+        <v>0.9599999999999999</v>
       </c>
       <c r="B14">
-        <v>0.021253248016701375</v>
+        <v>8.625898513012762</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>2.6</v>
+        <v>1.0399999999999998</v>
       </c>
       <c r="B15">
-        <v>0.015497649916374217</v>
+        <v>47.802510512760264</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>2.8000000000000003</v>
+        <v>1.1199999999999999</v>
       </c>
       <c r="B16">
-        <v>0.011239182180028406</v>
+        <v>16654.262145217403</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>3.0000000000000004</v>
+        <v>1.2</v>
       </c>
       <c r="B17">
-        <v>0.008112390923074926</v>
+        <v>237323019166271.06</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>3.2000000000000006</v>
+        <v>1.28</v>
       </c>
       <c r="B18">
-        <v>0.005831306685608324</v>
+        <v>1.1974623648130726e+55</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>3.400000000000001</v>
+        <v>1.36</v>
       </c>
       <c r="B19">
-        <v>0.004176359497388577</v>
+        <v>9.38288279010151e+217</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>3.600000000000001</v>
+        <v>1.4400000000000002</v>
       </c>
       <c r="B20">
-        <v>0.002981409547932588</v>
+        <v>Infinity</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>3.800000000000001</v>
+        <v>1.5200000000000002</v>
       </c>
       <c r="B21">
-        <v>0.0021221987844408214</v>
+        <v>Infinity</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>4.000000000000001</v>
+        <v>1.6000000000000003</v>
       </c>
       <c r="B22">
-        <v>0.0015066685222164464</v>
+        <v>Infinity</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>4.200000000000001</v>
+        <v>1.6800000000000004</v>
       </c>
       <c r="B23">
-        <v>0.001067149085199219</v>
+        <v>Infinity</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>4.400000000000001</v>
+        <v>1.7600000000000005</v>
       </c>
       <c r="B24">
-        <v>0.0007542267248957475</v>
+        <v>Infinity</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>4.600000000000001</v>
+        <v>1.8400000000000005</v>
       </c>
       <c r="B25">
-        <v>0.0005320220976185461</v>
+        <v>Infinity</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>4.800000000000002</v>
+        <v>1.9200000000000006</v>
       </c>
       <c r="B26">
-        <v>0.00037461026413992233</v>
+        <v>Infinity</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>5.000000000000002</v>
+        <v>2.0000000000000004</v>
       </c>
       <c r="B27">
-        <v>0.0002633386967808469</v>
+        <v>Infinity</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>5.200000000000002</v>
+        <v>2.0800000000000005</v>
       </c>
       <c r="B28">
-        <v>0.0001848375578975653</v>
+        <v>Infinity</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>5.400000000000002</v>
+        <v>2.1600000000000006</v>
       </c>
       <c r="B29">
-        <v>0.00012955543869196579</v>
+        <v>Infinity</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>5.600000000000002</v>
+        <v>2.2400000000000007</v>
       </c>
       <c r="B30">
-        <v>0.00009068908812177513</v>
+        <v>Infinity</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>5.8000000000000025</v>
+        <v>2.3200000000000007</v>
       </c>
       <c r="B31">
-        <v>0.00006340564046037269</v>
+        <v>Infinity</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>6.000000000000003</v>
+        <v>2.400000000000001</v>
       </c>
       <c r="B32">
-        <v>0.0000442802220125611</v>
+        <v>Infinity</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>6.200000000000003</v>
+        <v>2.480000000000001</v>
       </c>
       <c r="B33">
-        <v>0.00003089106258049481</v>
+        <v>Infinity</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>6.400000000000003</v>
+        <v>2.560000000000001</v>
       </c>
       <c r="B34">
-        <v>0.00002152911513439233</v>
+        <v>Infinity</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>6.600000000000003</v>
+        <v>2.640000000000001</v>
       </c>
       <c r="B35">
-        <v>0.000014990504765467202</v>
+        <v>Infinity</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>6.800000000000003</v>
+        <v>2.720000000000001</v>
       </c>
       <c r="B36">
-        <v>0.000010428628820368281</v>
+        <v>Infinity</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>7.0000000000000036</v>
+        <v>2.800000000000001</v>
       </c>
       <c r="B37">
-        <v>0.0000072490501745581884</v>
+        <v>Infinity</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>7.200000000000004</v>
+        <v>2.8800000000000012</v>
       </c>
       <c r="B38">
-        <v>0.0000050349848787727275</v>
+        <v>Infinity</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>7.400000000000004</v>
+        <v>2.9600000000000013</v>
       </c>
       <c r="B39">
-        <v>0.0000034945961335204744</v>
+        <v>Infinity</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>7.600000000000004</v>
+        <v>3.0400000000000014</v>
       </c>
       <c r="B40">
-        <v>0.00000242378833079651</v>
+        <v>Infinity</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>7.800000000000004</v>
+        <v>3.1200000000000014</v>
       </c>
       <c r="B41">
-        <v>0.000001679991438475549</v>
+        <v>Infinity</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>8.000000000000004</v>
+        <v>3.2000000000000015</v>
       </c>
       <c r="B42">
-        <v>0.000001163720660815273</v>
+        <v>Infinity</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>8.200000000000003</v>
+        <v>3.2800000000000016</v>
       </c>
       <c r="B43">
-        <v>8.056256181873853e-7</v>
+        <v>Infinity</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>8.400000000000002</v>
+        <v>3.3600000000000017</v>
       </c>
       <c r="B44">
-        <v>5.57408026725664e-7</v>
+        <v>Infinity</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>8.600000000000001</v>
+        <v>3.4400000000000017</v>
       </c>
       <c r="B45">
-        <v>3.8546087130864975e-7</v>
+        <v>Infinity</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>8.8</v>
+        <v>3.520000000000002</v>
       </c>
       <c r="B46">
-        <v>2.6641913507837385e-7</v>
+        <v>Infinity</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>9</v>
+        <v>3.600000000000002</v>
       </c>
       <c r="B47">
-        <v>1.8405123742342978e-7</v>
+        <v>Infinity</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>9.2</v>
+        <v>3.680000000000002</v>
       </c>
       <c r="B48">
-        <v>1.270895363049748e-7</v>
+        <v>Infinity</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>9.399999999999999</v>
+        <v>3.760000000000002</v>
       </c>
       <c r="B49">
-        <v>8.771774943302051e-8</v>
+        <v>Infinity</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>9.599999999999998</v>
+        <v>3.840000000000002</v>
       </c>
       <c r="B50">
-        <v>6.051738405045177e-8</v>
+        <v>Infinity</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>9.799999999999997</v>
+        <v>3.920000000000002</v>
       </c>
       <c r="B51">
-        <v>4.173454004706472e-8</v>
+        <v>Infinity</v>
       </c>
     </row>
   </sheetData>
